--- a/processadores_limpo.xlsx
+++ b/processadores_limpo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>fabricante</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Soquetes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +474,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700X3D</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +499,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5500</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +524,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600GT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +549,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5500</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +574,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Core I5 12400F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +599,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ryzen 7 9800X3D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +624,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700X</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +649,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700G</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +674,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7800X3D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +699,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +724,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ryzen 5 9600X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +749,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600X</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +774,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ryzen 3 3200G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +799,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600GT</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +824,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Core I5 12400</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +849,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Ryzen 3 5300G</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +874,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Core I5 14600K</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +899,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8500G</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +924,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +949,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8600G</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +974,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Core I3 10105</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +999,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ryzen 5 4500</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +1024,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600X</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AM5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +1049,16 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5800XT</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +1074,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Core I5 10400F</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +1099,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Core I7 12700K</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +1124,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Intel I3 10105F</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +1149,16 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Core I9 14900K</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,266 +1174,446 @@
           <t>AMD</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700G</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AM4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5700X, 3.4GHz, Cache 32MB, 8 Núcleos, 16 Threads - 100-100000926WOFAM4</t>
+          <t>Processador Intel Core i7-14700K, 14ª Geração, 5.6 GHz Max Turbo, Cache 33MB, 20 Núcleos, 28 Threads, LGA1700 - BX8071514700K</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1248.99</v>
+        <v>2899.99</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Core I7 14700K</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-14700K, 14ª Geração, 5.6 GHz Max Turbo, Cache 33MB, 20 Núcleos, 28 Threads, LGA1700 - BX8071514700K</t>
+          <t>Processador Intel Core i7-14700KF, 14ª Geração, 5.6 GHz Max Turbo, Cache 33MB, 20 Núcleos, 28 Threads, LGA1700 - BX8071514700KF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2899.99</v>
+        <v>2539.99</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Core I7 14700KF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-14700KF, 14ª Geração, 5.6 GHz Max Turbo, Cache 33MB, 20 Núcleos, 28 Threads, LGA1700 - BX8071514700KF</t>
+          <t>Processador AMD Ryzen 7 9700X, 3.8 GHz (5.5 GHz), Cache 32 MB, 8 Núcleos, 16 Threads, AM5 - 100-100001404WOF</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2539.99</v>
+        <v>2399.99</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ryzen 7 9700X</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 9700X, 3.8 GHz (5.5 GHz), Cache 32 MB, 8 Núcleos, 16 Threads, AM5 - 100-100001404WOF</t>
+          <t>Processador AMD Ryzen 7 7700, 5.3GHz Max Turbo, Cache 40MB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000592BOX</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2399.99</v>
+        <v>2149.99</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7700</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7700, 5.3GHz Max Turbo, Cache 40MB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000592BOX</t>
+          <t>Processador Intel Core i7-12700F, 2.1GHz (4.9GHz Max Turbo), Cache 25MB, LGA 1700 - BX8071512700F</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2149.99</v>
+        <v>1699.99</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Core I7 12700F</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-12700F, 2.1GHz (4.9GHz Max Turbo), Cache 25MB, LGA 1700 - BX8071512700F</t>
+          <t>Processador AMD Ryzen 7 8700G, 4.2GHz (5.1GHz Max Turbo), Cache 8MB, Octa-Core, 16 Threads, AM5, Vídeo Integrado - 100-100001236BOX</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1699.99</v>
+        <v>1949.99</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ryzen 7 8700G</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 8700G, 4.2GHz (5.1GHz Max Turbo), Cache 8MB, Octa-Core, 16 Threads, AM5, Vídeo Integrado - 100-100001236BOX</t>
+          <t>Processador AMD Ryzen 9 9900X, 4.4 GHz (5.6 GHz), Cache 64 MB, 12 Núcleos, 24 Threads, AM5 - 100-100000662WOF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1949.99</v>
+        <v>2899.99</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9900X</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 9900X, 4.4 GHz (5.6 GHz), Cache 64 MB, 12 Núcleos, 24 Threads, AM5 - 100-100000662WOF</t>
+          <t>Processador AMD Ryzen 7 7700X, 5.4GHz Max Turbo, Cache 40MB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000591WOF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2899.99</v>
+        <v>2349.99</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7700X</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7700X, 5.4GHz Max Turbo, Cache 40MB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000591WOF</t>
+          <t>Processador Intel Core i9-14900KF, 14ª Geração, 6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA1700 - BX8071514900KF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2349.99</v>
+        <v>3199.99</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Core I9 14900KF</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-14900KF, 14ª Geração, 6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA1700 - BX8071514900KF</t>
+          <t>Processador Intel Core i5-10400, 2.9GHz (4.3GHz Max Turbo), Cache 12MB, LGA 1200 - BX8070110400</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3199.99</v>
+        <v>949.99</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Core I5 10400</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-10400, 2.9GHz (4.3GHz Max Turbo), Cache 12MB, LGA 1200 - BX8070110400</t>
+          <t>Processador Intel Core i7-12700KF, 3.6GHz (5.0GHz Max Turbo), Cache 25MB, 12 Núcleos, 20 Threads, LGA 1700 - BX8071512700KF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>949.99</v>
+        <v>1549.99</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Core I7 12700KF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-12700KF, 3.6GHz (5.0GHz Max Turbo), Cache 25MB, 12 Núcleos, 20 Threads, LGA 1700 - BX8071512700KF</t>
+          <t>Processador Intel Core I5 14400f 14ª Geração, 3.5 Ghz (4.7 Ghz Turbo), Cache 20mb, 10 Núcleos, 16 Threads, Lga1700, Sem Vídeo Integrado - Bx8071514400f</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1549.99</v>
+        <v>1051.69</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Core I5 14400F</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 14400f 14ª Geração, 3.5 Ghz (4.7 Ghz Turbo), Cache 20mb, 10 Núcleos, 16 Threads, Lga1700, Sem Vídeo Integrado - Bx8071514400f</t>
+          <t>Processador AMD Ryzen 7 5700, 3.7 GHz (4.6GHz Max Turbo), Cache 4MB, 8 Núcleos, 16 Threads, AM4 - 100-100000743BOX</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1051.69</v>
+        <v>1099.99</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5700, 3.7 GHz (4.6GHz Max Turbo), Cache 4MB, 8 Núcleos, 16 Threads, AM4 - 100-100000743BOX</t>
+          <t>Processador Intel Core i9-12900KS, 3.4GHz (5.5GHz Max Turbo), Cache 30MB, LGA 1700, Vídeo Integrado - BX8071512900KS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1099.99</v>
+        <v>1999.99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Core I9 12900KS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-12900KS, 3.4GHz (5.5GHz Max Turbo), Cache 30MB, LGA 1700, Vídeo Integrado - BX8071512900KS</t>
+          <t>Processador AMD Ryzen 9 9950x3d, 4,4 GHz, (Máx Boos Clock Até 5,5 GHz), Cache 144MB, 16 Núcleos, Threads 32, AM5 - 100-100000719WOF</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1999.99</v>
+        <v>5299.99</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9950X3D</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 9950x3d, 4,4 GHz, (Máx Boos Clock Até 5,5 GHz), Cache 144MB, 16 Núcleos, Threads 32, AM5 - 100-100000719WOF</t>
+          <t>Processador AMD Ryzen 7 5700, 4.6GHZ, Cache 20MB, AM4, Sem Vídeo - 100-100000743box</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5299.99</v>
+        <v>1399.9</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5700, 4.6GHZ, Cache 20MB, AM4, Sem Vídeo - 100-100000743box</t>
+          <t>Processador Intel Core i5-12600KF, 3.7GHz (4.9Ghz Max Turbo), Cache 20MB, Quad Core, 16 Threads, LGA 1700 - BX8071512600KF</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1399.9</v>
+        <v>1199.99</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Core I5 12600KF</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-12600KF, 3.7GHz (4.9Ghz Max Turbo), Cache 20MB, Quad Core, 16 Threads, LGA 1700 - BX8071512600KF</t>
+          <t>Processador Intel Core i5-13400F, 4.6GHz Max Turbo, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - BX8071513400F</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1154,5029 +1624,5589 @@
           <t>Intel</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Core I5 13400F</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-13400F, 4.6GHz Max Turbo, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - BX8071513400F</t>
+          <t>Processador Intel Core I3-10100, 3.60GHz (4.3GHz Turbo), Cache 6MB, LGA 1200 - BX8070110100</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1199.99</v>
+        <v>679</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Core I3 10100</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-10100, 3.60GHz (4.3GHz Turbo), Cache 6MB, LGA 1200 - BX8070110100</t>
+          <t>Processador AMD Ryzen 7 5800X, 3.8GHz (4.7GHz Max Turbo), Cache 36MB, Octa Core, 16 Threads, AM4 - 100-100000063WOF</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>679</v>
+        <v>1669.99</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5800X</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5800X, 3.8GHz (4.7GHz Max Turbo), Cache 36MB, Octa Core, 16 Threads, AM4 - 100-100000063WOF</t>
+          <t>Processador AMD Ryzen 9 5900XT, 3,3 GHz (4.8 GHz), Cache 64MB, 16 Núcleos, 32 Threads, AM4 - 100-100001581WOF</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1669.99</v>
+        <v>2259.99</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ryzen 9 5900XT</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 5900XT, 3,3 GHz (4.8 GHz), Cache 64MB, 16 Núcleos, 32 Threads, AM4 - 100-100001581WOF</t>
+          <t>Processador Intel Core I5 - 12400F, 2.5GHz (4.4GHz Turbo), Cache 7,5MB, 12 Threads, Hexa Core, LGA 1700 - BX8071512400F</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2259.99</v>
+        <v>769</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Core I5 12400F</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 - 12400F, 2.5GHz (4.4GHz Turbo), Cache 7,5MB, 12 Threads, Hexa Core, LGA 1700 - BX8071512400F</t>
+          <t>Processador Intel Core i5-14600KF, 14ª Geração, 5.3 GHz Max Turbo, Cache 24MB, 14 Núcleos, 20 Threads, LGA1700 - BX8071514600KF</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>769</v>
+        <v>1599.99</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Core I5 14600KF</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-14600KF, 14ª Geração, 5.3 GHz Max Turbo, Cache 24MB, 14 Núcleos, 20 Threads, LGA1700 - BX8071514600KF</t>
+          <t>Processador AMD Ryzen 5 8400F, 4.2 GHz (4.7 GHz Max Turbo), Cache 22MB, AM5, 6 Núcleos, 12 Threads - 100-100001591BOX</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1599.99</v>
+        <v>1049.99</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8400F</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 8400F, 4.2 GHz (4.7 GHz Max Turbo), Cache 22MB, AM5, 6 Núcleos, 12 Threads - 100-100001591BOX</t>
+          <t>Processador AMD Ryzen 7 8700F, 4.1 GHz (5.0 GHz Max Turbo), Cache 24MB, 8 Núcleos, 16 Threads, AM5 - 100-100001590BOX</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1049.99</v>
+        <v>1649.99</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ryzen 7 8700F</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 8700F, 4.1 GHz (5.0 GHz Max Turbo), Cache 24MB, 8 Núcleos, 16 Threads, AM5 - 100-100001590BOX</t>
+          <t>Processador Intel Core I5 14600kf 14 Geração, 3.5 Ghz (5.3 Ghz Turbo), Cache 24MP, LGA1700 - Bx8071514600kf</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1649.99</v>
+        <v>1749.51</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Core I5 14600KF</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 14600kf 14 Geração, 3.5 Ghz (5.3 Ghz Turbo), Cache 24MP, LGA1700 - Bx8071514600kf</t>
+          <t>Processador AMD Ryzen 9 9950X, 4.3 GHz (5.7 GHz), Cache 64 MB, 16 Núcleos, 32 Threads, AM5 - 100-100001277WOF</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1749.51</v>
+        <v>3999.99</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9950X</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 9950X, 4.3 GHz (5.7 GHz), Cache 64 MB, 16 Núcleos, 32 Threads, AM5 - 100-100001277WOF</t>
+          <t>Processador Amd Ryzen 7 9800x3d, 4.7Ghz (5.2Ghz Turbo), 8 Cores, 16 Threads, Am5, Sem Cooler - 100-1000001084wof</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3999.99</v>
+        <v>3289</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ryzen 7 9800X3D</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 7 9800x3d, 4.7Ghz (5.2Ghz Turbo), 8 Cores, 16 Threads, Am5, Sem Cooler - 100-1000001084wof</t>
+          <t>Processador Intel Core i3-12100F, 3.3GHz (4.3GHz Max Turbo), Cache 12MB, LGA 1700 - BX8071512100F</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3289</v>
+        <v>549.99</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Core I3 12100F</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-12100F, 3.3GHz (4.3GHz Max Turbo), Cache 12MB, LGA 1700 - BX8071512100F</t>
+          <t>Processador Intel Core i3-12100, Cache 12MB, 3.3GHz (4.3GHz Max Turbo), LGA 1700, Vídeo Integrado, com Cooler - BX8071512100</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>549.99</v>
+        <v>849.99</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Core I3 12100</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-12100, Cache 12MB, 3.3GHz (4.3GHz Max Turbo), LGA 1700, Vídeo Integrado, com Cooler - BX8071512100</t>
+          <t>Processador Intel Core i9-12900KF, 3.2GHz (5.2GHz Max Turbo), Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700 - BX8071512900KF</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>849.99</v>
+        <v>2299.99</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Core I9 12900KF</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-12900KF, 3.2GHz (5.2GHz Max Turbo), Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700 - BX8071512900KF</t>
+          <t>Processador Intel Core i5-13400, 4.6GHz Max Turbo, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Vídeo Integrado - BX8071513400</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2299.99</v>
+        <v>1399.99</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Core I5 13400</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-13400, 4.6GHz Max Turbo, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Vídeo Integrado - BX8071513400</t>
+          <t>Processador Intel Core i7-12700, Cache 25MB, 2.1GHz (4.9GHz Max Turbo), LGA 1700 - BX8071512700</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1399.99</v>
+        <v>1899.99</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Core I7 12700</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-12700, Cache 25MB, 2.1GHz (4.9GHz Max Turbo), LGA 1700 - BX8071512700</t>
+          <t>Processador AMD Ryzen 9 7900X, 5.6GHz Max Turbo, Cache 76MB, AM5, 12 Núcleos, Vídeo Integrado - 100-100000589WOF</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1899.99</v>
+        <v>2849.99</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900X</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7900X, 5.6GHz Max Turbo, Cache 76MB, AM5, 12 Núcleos, Vídeo Integrado - 100-100000589WOF</t>
+          <t>Processador Intel Core i5-12600K, 3.7GHz (4.9GHz Max Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Vídeo Integrado - BX8071512600K</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2849.99</v>
+        <v>1299.99</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Core I5 12600K</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-12600K, 3.7GHz (4.9GHz Max Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Vídeo Integrado - BX8071512600K</t>
+          <t>Processador Intel Core i3-13100, 4.5GHz Max Turbo, Cache 12MB, 4 Núcleos, 8 Threads, LGA 1700, Vídeo Integrado - BX8071513100</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1299.99</v>
+        <v>849.99</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Core I3 13100</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-13100, 4.5GHz Max Turbo, Cache 12MB, 4 Núcleos, 8 Threads, LGA 1700, Vídeo Integrado - BX8071513100</t>
+          <t>Processador Intel Pentium Gold G6400 Processor, 4.00 GHz, Cache 4MB, Dual Core, 4 Threads, LGA1200 - BX80701G6400</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>849.99</v>
+        <v>519.99</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Pentium Gold G6400</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium Gold G6400 Processor, 4.00 GHz, Cache 4MB, Dual Core, 4 Threads, LGA1200 - BX80701G6400</t>
+          <t>Processador Intel Core i9-12900F, Cache 30MB, 2.4GHz (5.1GHz Max Turbo), LGA 1700 - BX8071512900F</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>519.99</v>
+        <v>2159.99</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Core I9 12900F</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-12900F, Cache 30MB, 2.4GHz (5.1GHz Max Turbo), LGA 1700 - BX8071512900F</t>
+          <t>Processador Intel Core i7-13700F, 5.2GHz Max Turbo, Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700 - BX8071513700F</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2159.99</v>
+        <v>2299.99</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Core I7 13700F</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-13700F, 5.2GHz Max Turbo, Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700 - BX8071513700F</t>
+          <t>Processador AMD Ryzen 9 7950X, 5.7GHz Max Turbo, Cache 80MB, AM5, 16 Núcleos, Vídeo Integrado - 100-100000514WOF</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2299.99</v>
+        <v>3699.99</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7950X</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7950X, 5.7GHz Max Turbo, Cache 80MB, AM5, 16 Núcleos, Vídeo Integrado - 100-100000514WOF</t>
+          <t>Processador AMD Ryzen 9 7900, 5.4GHz Max Turbo, Cache 76MB, AM5, 12 Núcleos, Vídeo Integrado - 100-100000590BOX</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3699.99</v>
+        <v>2649.99</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7900, 5.4GHz Max Turbo, Cache 76MB, AM5, 12 Núcleos, Vídeo Integrado - 100-100000590BOX</t>
+          <t>Processador AMD Ryzen 9 9900x3d, 4,4 GHz, (Máx Boos Clock Até 5,5 GHz), Cache 140MB, 12 Núcleos, Threads 24, AM5 - 100-100001368WOF</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2649.99</v>
+        <v>4199.99</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9900X3D</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 9900x3d, 4,4 GHz, (Máx Boos Clock Até 5,5 GHz), Cache 140MB, 12 Núcleos, Threads 24, AM5 - 100-100001368WOF</t>
+          <t>Processador Intel Core i3-10100F, 3.6GHz (4.3GHz Max Boost), Cache 6MB, Quad Core, 8 Threads, LGA 1200 - BX8070110100F</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4199.99</v>
+        <v>499.99</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Core I3 10100F</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-10100F, 3.6GHz (4.3GHz Max Boost), Cache 6MB, Quad Core, 8 Threads, LGA 1200 - BX8070110100F</t>
+          <t>Processador Intel Core i9-13900F, 5.6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700 - BX8071513900F</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>499.99</v>
+        <v>2949.99</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Core I9 13900F</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-13900F, 5.6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700 - BX8071513900F</t>
+          <t>Processador Intel Core I3 - 14100, 3.5 GHz, (4.7GHz Turbo), Cache 12MB, 8 Threads, LGA 1700 - Bx8071514100</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2949.99</v>
+        <v>876.4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Core I3 14100</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 - 14100, 3.5 GHz, (4.7GHz Turbo), Cache 12MB, 8 Threads, LGA 1700 - Bx8071514100</t>
+          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4GHz Max Turbo), Cache 6MB, AM4 - YD3200C5FHBOX</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>876.4</v>
+        <v>449</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ryzen 3 3200G</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4GHz Max Turbo), Cache 6MB, AM4 - YD3200C5FHBOX</t>
+          <t>Processador Intel Celeron G5905, 3.50 GHz, Cache 4MB, 2 Núcleos, 2 Threads, LGA 1200, Vídeo Integrado - BX80701G5905</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>449</v>
+        <v>329.99</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Celeron G5905</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Processador Intel Celeron G5905, 3.50 GHz, Cache 4MB, 2 Núcleos, 2 Threads, LGA 1200, Vídeo Integrado - BX80701G5905</t>
+          <t>Processador Amd Ryzen 9 9950x3d Am5 4,3ghz 5,7ghz Turbo 16 Cores 32 Threads 144mb S/cooler C/vídeo</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>329.99</v>
+        <v>5129.9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9950X3D</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 9 9950x3d Am5 4,3ghz 5,7ghz Turbo 16 Cores 32 Threads 144mb S/cooler C/vídeo</t>
+          <t>Processador Intel Core I7-14700f, Turbo Até 5.4ghz, 20-cores, 28-threads, 33mb Cache, LGA 1700 - Bx8071514700f</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5129.9</v>
+        <v>2442</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Core I7 14700F</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7-14700f, Turbo Até 5.4ghz, 20-cores, 28-threads, 33mb Cache, LGA 1700 - Bx8071514700f</t>
+          <t>Processador AMD Ryzen 5 5600G, 3.9GHz, Cache 16MB, Hexa Core, 12 Threads, AM4, Ví­deo Integrado - 100-100000252BOX.</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2442</v>
+        <v>1082.9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600G</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 5600G, 3.9GHz, Cache 16MB, Hexa Core, 12 Threads, AM4, Ví­deo Integrado - 100-100000252BOX.</t>
+          <t>Processador Amd Ryzen 9 9900x 4.4ghz Até 5.6ghz Turbo 12 Cores 24 Threads Am5 76mb Radeon Graphics Sem Cooler - 100-100000662wof</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1082.9</v>
+        <v>5007.1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9900X</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 9 9900x 4.4ghz Até 5.6ghz Turbo 12 Cores 24 Threads Am5 76mb Radeon Graphics Sem Cooler - 100-100000662wof</t>
+          <t>Processador Intel Core I5 14400, 14ª Geração 3.5 Ghz, 4.7 Ghz Turbo, Cache 20mb, LGA1700 - Bx8071514400</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5007.1</v>
+        <v>1303.85</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Core I5 14400</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 14400, 14ª Geração 3.5 Ghz, 4.7 Ghz Turbo, Cache 20mb, LGA1700 - Bx8071514400</t>
+          <t>Processador Intel Pentium Gold G6405, 4.10 GHz, Cache 4MB, Dual Core, 4 Threads, LGA1200 - BX80701G6405</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1303.85</v>
+        <v>529.99</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Pentium Gold G6405</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium Gold G6405, 4.10 GHz, Cache 4MB, Dual Core, 4 Threads, LGA1200 - BX80701G6405</t>
+          <t>Processador Intel Core I5 13400f, 2.5GHz (4.6GHz Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Sem Vídeo - Bx8071513400f</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>529.99</v>
+        <v>979</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Core I5 13400F</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 13400f, 2.5GHz (4.6GHz Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700, Sem Vídeo - Bx8071513400f</t>
+          <t>Processador Intel I7-12700KF, 3.6GHz 5.0GHz Max Turbo, Cache 25MB, Dual Core, 20 Threads, LGA 1700 - BX8071512700KF</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>979</v>
+        <v>1949</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Intel I7 12700KF</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Processador Intel I7-12700KF, 3.6GHz 5.0GHz Max Turbo, Cache 25MB, Dual Core, 20 Threads, LGA 1700 - BX8071512700KF</t>
+          <t>Processador AMD Ryzen 9 7950X3D, 5.7GHz Max Turbo, Cache 128MB, AM5, 16 Núcleos, Vídeo Integrado - 100-100000908WOF</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1949</v>
+        <v>4999.99</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7950X3D</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7950X3D, 5.7GHz Max Turbo, Cache 128MB, AM5, 16 Núcleos, Vídeo Integrado - 100-100000908WOF</t>
+          <t>Processador Amd Ryzen 5 8600g, 4.3GHZ (5.0GHZ MAX), AM5, Cache 22MB, Sem Cooler - 100-100001237box</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4999.99</v>
+        <v>1342.37</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8600G</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 5 8600g, 4.3GHZ (5.0GHZ MAX), AM5, Cache 22MB, Sem Cooler - 100-100001237box</t>
+          <t>Processador Intel Core I7 3770, 3.9GHz, Cache 8MB, LGA 1155, Sem Cooler Tray</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1342.37</v>
+        <v>342.52</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Core I7 3770</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 3770, 3.9GHz, Cache 8MB, LGA 1155, Sem Cooler Tray</t>
+          <t>Processador AMD Ryzen 5-8500g, Hexa Core 3.5GHz, AM5, Cache 16MB, Vídeo Integrado - 100-100000931box</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>342.52</v>
+        <v>1033.63</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8500G</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5-8500g, Hexa Core 3.5GHz, AM5, Cache 16MB, Vídeo Integrado - 100-100000931box</t>
+          <t>Processador AMD Ryzen 5 5600,3.5ghz, Cache 35mb, Am4, Sem Vídeo</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1033.63</v>
+        <v>791.12</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 5600,3.5ghz, Cache 35mb, Am4, Sem Vídeo</t>
+          <t>Processador Intel Core i7-11700K 11ª Geração, 3.6 GHz (4.9GHz Turbo), Cache 16MB, Octa Core, LGA 1200, Vídeo Integrado - BX8070811700K</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>791.12</v>
+        <v>2599.99</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Core I7 11700K</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-11700K 11ª Geração, 3.6 GHz (4.9GHz Turbo), Cache 16MB, Octa Core, LGA 1200, Vídeo Integrado - BX8070811700K</t>
+          <t>Processador Intel Core i3-10105F, 3.7GHz (4.4GHz Max Turbo), Cache 6MB, Quad Core, 8 Thread, LGA 1200 - BX8070110105F</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2599.99</v>
+        <v>499.99</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Core I3 10105F</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 5-245K, 5.2GHz, Até 14 Núcleos, Com suporte a PCIe 5.0 e 4.0 e suporte a DDR5- BX80768245K</t>
+          <t>Processador AMD Ryzen 5 7600, 3.8GHz (5.1GHz Turbo), Cache 32MB, Hexa Core, 12 Threads, AM5, Wraith Stealth - 100-100001015BOX</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2699.99</v>
+        <v>1520.91</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-10105F, 3.7GHz (4.4GHz Max Turbo), Cache 6MB, Quad Core, 8 Thread, LGA 1200 - BX8070110105F</t>
+          <t>Processador AMD Ryzen 7 7800x3d, 4.2GHz, 5.0GHz Max Turbo, Cache 104MB, Am5, C/ Vídeo E Sem Cooler - 100-100000910wof</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>499.99</v>
+        <v>3099</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7800X3D</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 7600, 3.8GHz (5.1GHz Turbo), Cache 32MB, Hexa Core, 12 Threads, AM5, Wraith Stealth - 100-100001015BOX</t>
+          <t>Processador AMD Ryzen 5 7600X, 5.3GHz, Cache 38MB, AM5, Radeon Graphics - 100-100000593WOF</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1520.91</v>
+        <v>1644.23</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600X</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7800x3d, 4.2GHz, 5.0GHz Max Turbo, Cache 104MB, Am5, C/ Vídeo E Sem Cooler - 100-100000910wof</t>
+          <t>Processador Amd Ryzen 7 5800xt 3.8ghz (4.8ghz Turbo) 8 Cores 16 Threads Am4 36mb Cache Wraith Prism Sem Video - 100-100001582box</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3099</v>
+        <v>1718.9</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5800XT</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 7600X, 5.3GHz, Cache 38MB, AM5, Radeon Graphics - 100-100000593WOF</t>
+          <t>Processador Intel Core i9-12900K, 3.2GHz (5.2GHz Max Turbo), Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700, Vídeo Integrado - BX8071512900K</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1644.23</v>
+        <v>2499.99</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Core I9 12900K</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Processador AMD Athlon 3000g, 3.5GHz, Cache 5MB, AM4, 2 Núcleos, 4 Threads - Yd3000c6fhsbx</t>
+          <t>Processador Intel Core I5-10400F, 2.9GHz (4.3GHz Turbo), Hexa Core, Cache 12MB, LGA 1200 - BX8070110400F</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>334.45</v>
+        <v>749</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Core I5 10400F</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 7 5800xt 3.8ghz (4.8ghz Turbo) 8 Cores 16 Threads Am4 36mb Cache Wraith Prism Sem Video - 100-100001582box</t>
+          <t>Processador Intel Core I5-12600KF 12ª Geração, 3.7GHz, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - BX8071512600KF</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1718.9</v>
+        <v>1299</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Core I5 12600KF</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-12900K, 3.2GHz (5.2GHz Max Turbo), Cache 30MB, 16 Núcleos, 24 Threads, LGA 1700, Vídeo Integrado - BX8071512900K</t>
+          <t>Processador Intel I5-12400, 2.5GHz, Cache 18MB, Hexa Core, 12 Threads, LGA 1700 - BX8071512400</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2499.99</v>
+        <v>1075.48</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Intel I5 12400</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen Radeon 9 7950X, 2200MHz, Cache 80MB, 1Hexa Core, AM5, Vídeo Integrado - 100-100000514WOF</t>
+          <t>Processador AMD Ryzen 3 4100, 4.0GHz, Cache 6MB, AM4, Wraith Stealth, Sem Ví­deo Integrado - 100-100000510BOX</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4054.81</v>
+        <v>465.17</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ryzen 3 4100</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 7-265K, 5.5GHz, Até 20 Núcleos, Com suporte a PCIe 5.0 e 4.0 e suporte a DDR5 - BX80768265K</t>
+          <t>Processador Intel I5-11400F, 2.6GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200 - BX8070811400F</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2899.99</v>
+        <v>1104.32</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Intel I5 11400F</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-10400F, 2.9GHz (4.3GHz Turbo), Hexa Core, Cache 12MB, LGA 1200 - BX8070110400F</t>
+          <t>Processador Intel I3-12100F, 3.3GHz, Cache 12MB, Quad Core, 8 Threads, LGA 1700 - BX8071512100F</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>749</v>
+        <v>579</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Intel I3 12100F</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-12600KF 12ª Geração, 3.7GHz, Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - BX8071512600KF</t>
+          <t>Processador AMD Ryzen 9 5900XT, 3.3GHz (4.8GHz Turbo) Cache 72MB, AM4, 16 Nucleos 32 Threads - 100-100001581wof</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1299</v>
+        <v>2325.35</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ryzen 9 5900XT</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Processador Intel I5-12400, 2.5GHz, Cache 18MB, Hexa Core, 12 Threads, LGA 1700 - BX8071512400</t>
+          <t>Processador Intel Core I3-12100, 30GHz, Cache 12MB, 8 Threads, LGA 1700 - Bx8071512100</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1075.48</v>
+        <v>903.74</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Core I3 12100</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 3 4100, 4.0GHz, Cache 6MB, AM4, Wraith Stealth, Sem Ví­deo Integrado - 100-100000510BOX</t>
+          <t>Processador AMD Ryzen 9 7950X3D, 4.2GHz, 5.7GHz, Cache 16MB, AM5, 16 Núcleos, 32threads, Placa de Vídeo, S/ Cooler - 100-100000908WOF</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>465.17</v>
+        <v>5005.11</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7950X3D</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Processador Intel I5-11400F, 2.6GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200 - BX8070811400F</t>
+          <t>Processador Intel Core i5-9500 Coffee Lake, 3.0GHz, LGA 1151, 9MB, S/ Cooler Tray - BX80684I9500</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1104.32</v>
+        <v>637.99</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Core I5 9500</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Processador 1150 Core I7 4790 3,6ghz/8MB S/cooler Tray 4ªg I7-4790 Intel</t>
+          <t>Processador Intel Core I3 14100f, 14ª Geração, 3.5 Ghz, 4.7 Ghz Turbo, Cache 12mb Lga 1700, Sem Vídeo - Bx8071514100f</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>411.02</v>
+        <v>639</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Core I3 14100F</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Processador Intel I3-12100F, 3.3GHz, Cache 12MB, Quad Core, 8 Threads, LGA 1700 - BX8071512100F</t>
+          <t>Processador Intel Core I7 - 14700, 2.1GHz (5.40GHz Max Turbo), Cache 33MB, 28 Threads, LGA 1700</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>579</v>
+        <v>2436.8</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Core I7 14700</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 5900XT, 3.3GHz (4.8GHz Turbo) Cache 72MB, AM4, 16 Nucleos 32 Threads - 100-100001581wof</t>
+          <t>Processador AMD Ryzen 7-9700x, 3.8GHz (5.5GHz Turbo), 8 Cores, 16 Threads, AM5 40MB Radeon Graphics, Sem Cooler - 100-100001404wof</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2325.35</v>
+        <v>2425.11</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ryzen 7 9700X</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Processador Intel 1155 Core I5 2400 3.1ghz/3MB S/ Cooler Tray 2º G I5-2400</t>
+          <t>Processador Amd Ryzen 5 9600x 3.9ghz (5.4ghz Turbo) 6 Cores 12 Threads Am5 38mb Radeon Graphics Sem Cooler - 100-100001405wof</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>119.59</v>
+        <v>1960.9</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ryzen 5 9600X</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-12100, 30GHz, Cache 12MB, 8 Threads, LGA 1700 - Bx8071512100</t>
+          <t>Processador AMD Ryzen 9 5900X, 3.7GHz, Cache 70MB, AM4, 105W</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>903.74</v>
+        <v>3029.55</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ryzen 9 5900X</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7950X3D, 4.2GHz, 5.7GHz, Cache 16MB, AM5, 16 Núcleos, 32threads, Placa de Vídeo, S/ Cooler - 100-100000908WOF</t>
+          <t>Processador Intel Core I5 14600k 14 Geração, 3.5 Ghz (5.3 Ghz Turbo), Cache, 24MB, LGA1700 - Bx8071514600k</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5005.11</v>
+        <v>1749</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Core I5 14600K</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Processador Intel i5-11400 2.6GHz</t>
+          <t>Processador AMD Ryzen 5 8400f Am5 4.2ghz, 4.7ghz Max, 6 Cores, 12 Threads 22mb, Cache, Sem Vídeo, Sem Cooler - 100-100001591box</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1142.99</v>
+        <v>1064.59</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ryzen 5 8400F</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-9500 Coffee Lake, 3.0GHz, LGA 1151, 9MB, S/ Cooler Tray - BX80684I9500</t>
+          <t>Processador AMD Ryzen 9 9950x, 4.3GHz (5.7ghz Turbo) Cache 16MB, AM5, 16 Nucleos, 32 Threads, Radeon Graphics, Sem Cooler - 100-100001277wof</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>637.99</v>
+        <v>4434.93</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9950X</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 7-265KF, 5.5GHz, Até 20 Núcleos, Com suporte a PCIe 5.0 e 4.0 e suporte a DDR5 - BX80768265KF</t>
+          <t>Processador Intel I3-2100 / 3.1ghz / 3mb Cache / FcLGA 1155</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2899.99</v>
+        <v>47.63</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Intel I3 2100</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>FCLGA1155</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 14100f, 14ª Geração, 3.5 Ghz, 4.7 Ghz Turbo, Cache 12mb Lga 1700, Sem Vídeo - Bx8071514100f</t>
+          <t>Processador Intel Core i9-13900, 5.6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700, Vídeo Integrado - BX8071513900</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>639</v>
+        <v>3949.99</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Core I9 13900</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-8500, 3.0ghz, 9MB, S/cooler Tray</t>
+          <t>Processador Amd Ryzen 7 8700g, 4.2GHZ (5.1GHZ MAX), Cache 24MB, AM5, Sem Cooler - 100-100001236box</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>481.77</v>
+        <v>1906.53</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ryzen 7 8700G</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9 10900F 2.80GHz - 5.20GHz Turbo 20MB</t>
+          <t>Processador Intel Core I7 14700k, 5.60ghz Max Turbo, 20-core, 28-threads, LGA 1700</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2357.99</v>
+        <v>2769</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Core I7 14700K</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 - 14700, 2.1GHz (5.40GHz Max Turbo), Cache 33MB, 28 Threads, LGA 1700</t>
+          <t>Processador Intel Core I5-13600K, 2.6GHz, (5.1GHz Max Turbo), Cache 24MB, 20 Threads, LGA 1700 - BX8071513600KI</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2436.8</v>
+        <v>1969.9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Core I5 13600K</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7-9700x, 3.8GHz (5.5GHz Turbo), 8 Cores, 16 Threads, AM5 40MB Radeon Graphics, Sem Cooler - 100-100001404wof</t>
+          <t>Processador Intel Core i3-13100F, 4.5GHz Max Turbo, Cache 12MB, 4 Núcleos, 8 Threads, LGA 1700 - BX8071513100F</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2425.11</v>
+        <v>649.99</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Core I3 13100F</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 5 9600x 3.9ghz (5.4ghz Turbo) 6 Cores 12 Threads Am5 38mb Radeon Graphics Sem Cooler - 100-100001405wof</t>
+          <t>Processador Intel Core Ultra 7 265k Arrow Lake 3.9ghz 5.5ghz Turbo 20cores 20threads LGA 1851 Video Integrado</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1960.9</v>
+        <v>2669</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Core Ultra 7 265K</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>LGA1851</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 5900X, 3.7GHz, Cache 70MB, AM4, 105W</t>
+          <t>Processador AMD Ryzen 5 5600X, 3.7GHz, Cache 32MB, AM4, 6 Núcleos, 12 Threads - 100-100000065BOX</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3029.55</v>
+        <v>1149.73</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600X</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 14600k 14 Geração, 3.5 Ghz (5.3 Ghz Turbo), Cache, 24MB, LGA1700 - Bx8071514600k</t>
+          <t>Processador Intel Core I3-10105 10ª Geração, 3.70GHz (4.40ghz Turbo), Quad Core, Cache 6MB, 8 Threads, LGA 1200 - BX8070110105</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1749</v>
+        <v>699</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Core I3 10105</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 8400f Am5 4.2ghz, 4.7ghz Max, 6 Cores, 12 Threads 22mb, Cache, Sem Vídeo, Sem Cooler - 100-100001591box</t>
+          <t>Processador AMD Ryzen 5 5600, 3.5GHz (4.4GHz Turbo), AM4 - 100-100000927BOX</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1064.59</v>
+        <v>1012.99</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 9950x, 4.3GHz (5.7ghz Turbo) Cache 16MB, AM5, 16 Nucleos, 32 Threads, Radeon Graphics, Sem Cooler - 100-100001277wof</t>
+          <t>Processador Intel Core I9 12900F, 3.80GHz, 16 Core, LGA 1700</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4434.93</v>
+        <v>2940.07</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Core I9 12900F</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Processador Intel I5-6500 + 4 Núcleos +3.6GHZ OEM + Cache6 MB</t>
+          <t>Processador Intel Core i7 i7-2600 3,4GHz 5.0GT/s 8MB LGA1155</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>305.23</v>
+        <v>289.9</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>I7 2600</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Processador Intel I3-2100 / 3.1ghz / 3mb Cache / FcLGA 1155</t>
+          <t>Processador Intel Core I9 14900k, 14ª Geração, 3.6 GHZ 6.0 GHZ Turbo, Cache 36MB, Intel LGA1700 - BX8071514900K</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>47.63</v>
+        <v>3649</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Core I9 14900K</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-13900, 5.6GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700, Vídeo Integrado - BX8071513900</t>
+          <t>Processador Amd Ryzen 9 9900x3d Am5 4,4ghz 5,5ghz Turbo 12 Cores 24 Threads 140mb S/cooler C/vídeo</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3949.99</v>
+        <v>4785.81</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Ryzen 9 9900X3D</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 5-245KF, 5.2GHz, Até 14 Núcleos, Com suporte a PCIe 5.0 e 4.0 e suporte a DDR5 - BX80768245KF</t>
+          <t>Processador AMD Ryzen 5 4500, 3.6GHz, Cache 11MB, 12 Threads, AM4, Hexa Core - 100100000644BOX</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1999.99</v>
+        <v>553.75</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ryzen 5 4500</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 7 8700g, 4.2GHZ (5.1GHZ MAX), Cache 24MB, AM5, Sem Cooler - 100-100001236box</t>
+          <t>Processador Intel Core I5 7500, 3.4GHz, Cache 6MB, LGA 1151, Sem Cooler Tray - BX80677I57500</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1906.53</v>
+        <v>386.11</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Core I5 7500</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 14700k, 5.60ghz Max Turbo, 20-core, 28-threads, LGA 1700</t>
+          <t>Processador Intel Core I5-10400, 2.90GHz (4.3GHz Turbo), Hexa Core, Cache 12MB, LGA 1200 - BX8070110400</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2769</v>
+        <v>921.27</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Core I5 10400</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 21xx, LGA 1155 - Oem</t>
+          <t>Processador Intel Core I3-2100 Cache 3m 3.10ghz LGA 1155 Oem</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>68.11</v>
+        <v>147.97</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Core I3 2100</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-13600K, 2.6GHz, (5.1GHz Max Turbo), Cache 24MB, 20 Threads, LGA 1700 - BX8071513600KI</t>
+          <t>Processador Intel Core I9 14900, 5.80ghz, Max Turbo, 24-core, 32-threads, LGA1700</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1969.9</v>
+        <v>3969</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Core I9 14900</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 4590, 3.7GHz, Cache 6MB, 1150, Sem Cooler</t>
+          <t>Processador Amd Ryzen 5 7600x 4.7ghz Am5 Vídeo Integrado 100-100000593woz</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>179.66</v>
+        <v>1495.12</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600X</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7 11700 2.50GHz</t>
+          <t>Processador Intel I5-9500, 4,40ghz, 9mb Cache - Fclga1151</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2267.99</v>
+        <v>628.1799999999999</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Intel I5 9500</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3-13100F, 4.5GHz Max Turbo, Cache 12MB, 4 Núcleos, 8 Threads, LGA 1700 - BX8071513100F</t>
+          <t>Processador AMD Ryzen 9 7900X, 4.70GHz (turbo 5.60GHz), Cache 76MB, AM5, Radeon Graphics Com Ví­deo - 100-100000589WOF</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>649.99</v>
+        <v>2875.75</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900X</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 7 265k Arrow Lake 3.9ghz 5.5ghz Turbo 20cores 20threads LGA 1851 Video Integrado</t>
+          <t>Processador Intel Core I9 14900f, 5.80ghz, Max Turbo, 24-core, 32-threads, LGA1700</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2669</v>
+        <v>4209</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Core I9 14900F</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 5600X, 3.7GHz, Cache 32MB, AM4, 6 Núcleos, 12 Threads - 100-100000065BOX</t>
+          <t>Processador Intel Core I9-10850K, 3.6GHz (5.2GHz), Cache 20MB, LGA 1200 - BX8070110850K</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1149.73</v>
+        <v>2555.99</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Core I9 10850K</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-10105 10ª Geração, 3.70GHz (4.40ghz Turbo), Quad Core, Cache 6MB, 8 Threads, LGA 1200 - BX8070110105</t>
+          <t>Processador Intel Core I9-13900kf, Lga 1700, 36MB Cache - Bx8071513900kf</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>699</v>
+        <v>3379</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Core I9 13900KF</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 5600, 3.5GHz (4.4GHz Turbo), AM4 - 100-100000927BOX</t>
+          <t>Processador Intel I3-4130, 3.40GHz, Cache 3MB, Dual Core, 4 Threads, FCLGA 1150, OEM</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1012.99</v>
+        <v>46.71</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Intel I3 4130</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>FCLGA1150</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Processador Core I7 1151 Intel Octa Core I7-9700f</t>
+          <t>Processador Intel Core I5 13400 Box Lga 1700 10 Cores 16 Threads 20MB Cache - BX8071513400</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1400.87</v>
+        <v>1289</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Core I5 13400</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 12900F, 3.80GHz, 16 Core, LGA 1700</t>
+          <t>Processador AMD Ryzen 7 8700f Am5 4.1ghz, 5.0ghz Max, 8 Cores, 16 Threads 24mb, Cache Cooler Wraith Stealth</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2940.07</v>
+        <v>1875.57</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Ryzen 7 8700F</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7 i7-2600 3,4GHz 5.0GT/s 8MB LGA1155</t>
+          <t>Processador Intel I5-6500 3.20ghz 6mb LGA 1151 H110(sem Cooler - Oem)</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>289.9</v>
+        <v>346.84</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Intel I5 6500</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 81xx 3.6 1151 Oem</t>
+          <t>Processador Intel Core I9 13900K, 5.80GHz Max Turbo, Cache 36MB, Quad Core, 32 Threads, LGA 1700</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>345.72</v>
+        <v>4779</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Core I9 13900K</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 14900k, 14ª Geração, 3.6 GHZ 6.0 GHZ Turbo, Cache 36MB, Intel LGA1700 - BX8071514900K</t>
+          <t>Processador Intel Core I7-12700K, 3.6GHz (5.0GHz Max Turbo), Cache 25MB, LGA 1700 - BX8071512700K</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3649</v>
+        <v>1929</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Core I7 12700K</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 9 9900x3d Am5 4,4ghz 5,5ghz Turbo 12 Cores 24 Threads 140mb S/cooler C/vídeo</t>
+          <t>Processador AMD Ryzen 3 5300G 4GHz (4.2GHz Turbo) AM4, 4 Núcleos, 8 Threads, Vídeo Integrado</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4785.81</v>
+        <v>619.12</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Ryzen 3 5300G</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Processador Intel 1151 Core I7 8700 3.7ghz/12mb S/ Cooler Tray 8°g I7-8700</t>
+          <t>Processador AMD Ryzen 7 7700X, 5.4GHz, Cache 40MB, AM5, 8 núcleos, 16 Threads, Radeon Graphics Com Vídeo - 100-100000591WOF</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>989.78</v>
+        <v>2405.33</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7700X</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 4500, 3.6GHz, Cache 11MB, 12 Threads, AM4, Hexa Core - 100100000644BOX</t>
+          <t>Processador Intel I3-6100 3.70ghz 3mb Cache LGA 1151 O&amp;m</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>553.75</v>
+        <v>126.45</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Intel I3 6100</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 7500, 3.4GHz, Cache 6MB, LGA 1151, Sem Cooler Tray - BX80677I57500</t>
+          <t>Processador AMD Ryzen 9 7900, 3.7GHz (5.4GHz Max Turbo), Cache 64MB, 12 Cores, 24 Threads, AM5, Wraith Prism - 100-100000590BOX</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>386.11</v>
+        <v>2660.75</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Processador Intel Core i9-11900KF, 5.2GHz, Cache 16MB, 8 Núcleos, 16 Threads</t>
+          <t>Processador Intel I7-12700F, 2.1Ghz (4.9Ghz Turbo ), Cache 25MB, 20 Threads, Dual Core, LGA 1700 - BX8071512700F</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1769</v>
+        <v>1899</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Intel I7 12700F</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-10400, 2.90GHz (4.3GHz Turbo), Hexa Core, Cache 12MB, LGA 1200 - BX8070110400</t>
+          <t>Processador Intel Core I5-11500 11ª Geração, 2.7GHz, Cache 12MB, Hexa Core, 4 Threads, LGA 1200 - BX8070811500</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>921.27</v>
+        <v>2045.1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Core I5 11500</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-2100 Cache 3m 3.10ghz LGA 1155 Oem</t>
+          <t>Processador Intel Celeron G6900, 3.40MHz, LGA 1700 - BX80715G6900</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>147.97</v>
+        <v>474.93</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Celeron G6900</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 14900, 5.80ghz, Max Turbo, 24-core, 32-threads, LGA1700</t>
+          <t>Processador Intel Core I5-12600K, 3.7GHz (4.9GHz Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - Bx8071512600k</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3969</v>
+        <v>1399</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Core I5 12600K</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 5 7600x 4.7ghz Am5 Vídeo Integrado 100-100000593woz</t>
+          <t>Processador Intel Core I7 14700kF, 3.4 GHz (5.6GHZ Turbo), Cache 33MB, LGA1700 - Bx8071514700kf</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1495.12</v>
+        <v>2509</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Core I7 14700KF</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Processador Intel I5-9500, 4,40ghz, 9mb Cache - Fclga1151</t>
+          <t>Processador Intel Core I9 14900kf, 14ª Geração, 3.6 Ghz (6.0ghz Turbo), Cache 36MB, LGA 1700 - BX8071514900KF</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>628.1799999999999</v>
+        <v>3359</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Core I9 14900KF</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7900X, 4.70GHz (turbo 5.60GHz), Cache 76MB, AM5, Radeon Graphics Com Ví­deo - 100-100000589WOF</t>
+          <t>Processador Intel Core I5-3470 LGA 1155 3.2ghz 326b770</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2875.75</v>
+        <v>139.9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Core I5 3470</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7-13700f, 2,10 GHz (5.2GHz Max Turbo) Cache 30MB, 16 Núcleos, 24 Threads, Sem Vídeo Integrado - Bx8071513700f</t>
+          <t>Processador Intel Core I5-10600KF, 4.1GHz, Cache 12MB, LGA 1200 - BX8070110600KF</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2299</v>
+        <v>1259.99</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Core I5 10600KF</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 14900f, 5.80ghz, Max Turbo, 24-core, 32-threads, LGA1700</t>
+          <t>Processador AMD Ryzen 7 5700g 3.8ghz, Vídeo Integrado Am4 - 100-100000263cbx</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4209</v>
+        <v>1359</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700G</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9-10850K, 3.6GHz (5.2GHz), Cache 20MB, LGA 1200 - BX8070110850K</t>
+          <t>Processador Intel I5-2400, 3.10ghz, 6mb Cache - Fclga1155.</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2555.99</v>
+        <v>122.18</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Intel I5 2400</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>FCLGA1155</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Processador Intel 1150 Core I5 4590, 3.70ghz, 6MB S/cooler, Tray 4ªg, I5-4590</t>
+          <t>Processador AMD Ryzen 7 7700 3.80ghz, 8-core, 40MB, Am5</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>166.9</v>
+        <v>2687.66</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7700</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9-13900kf, Lga 1700, 36MB Cache - Bx8071513900kf</t>
+          <t>Processador Intel Core I5-10400, 2.9GHz, Cache 12MB, LGA 1200 - BX8070110400</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3379</v>
+        <v>1099</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Core I5 10400</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Processador Intel I3-4130, 3.40GHz, Cache 3MB, Dual Core, 4 Threads, FCLGA 1150, OEM</t>
+          <t>Processador AMD Ryzen 9 7900 4.00ghz, 12-core, 76MB, Am5</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>46.71</v>
+        <v>3303.69</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 13400 Box Lga 1700 10 Cores 16 Threads 20MB Cache - BX8071513400</t>
+          <t>Processador Intel I7-8700 4.6GHz, Cache 12MB, 12 Threads - Fclga1151</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1289</v>
+        <v>930.36</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Intel I7 8700</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium Dual Core G5500 8ª Geração LGA 1151 - Cm8068403377611 S/cooler S/caixa</t>
+          <t>Processador Intel Core I7 10700K 10ª Geração, 3.80GHz, Cache 16MB, Octa Core, 16 Threads, LGA 1200 - BX8070110700K</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>147.12</v>
+        <v>2934.55</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Core I7 10700K</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Processador Intel i5-10600K 4.10GHz</t>
+          <t>Processador Intel Core I5 10400F, 2.90GHz, Cache 12MB, LGA 1200, Sem Cooler Tray - BX8070110400F</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1448.99</v>
+        <v>665.42</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Core I5 10400F</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 8700f Am5 4.1ghz, 5.0ghz Max, 8 Cores, 16 Threads 24mb, Cache Cooler Wraith Stealth</t>
+          <t>Processador AMD Ryzen 3 3200G, 3.6GHz - 4.0GHz Turbo, AM4, Quad Core, 4 Thread, Cooler Wraith Stealth - Yd3200c5fhbox</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1875.57</v>
+        <v>494.91</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Ryzen 3 3200G</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Processador Intel I5-6500 3.20ghz 6mb LGA 1151 H110(sem Cooler - Oem)</t>
+          <t>Processador Intel Celeron G5905, 4MB, 3.5ghz, LGA 1200, Bx80701g5905</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>346.84</v>
+        <v>419</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Celeron G5905</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Processador Intel 11700F Core I7 11ª Geração, 2.50GHz, Box - BX8070811700F.</t>
+          <t>Processador Intel Core I9-12900 12ª Geração, 1.8GHz, Cache 30MB, Núcleos 16, Threads 24, LGA 1700 - Bx8071512900</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2105.99</v>
+        <v>3158.88</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Core I9 12900</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7 10700KF 3.80GHz</t>
+          <t>Processador Intel Celeron G5925 10ª Geração, 3.6GHz, Cache 4MB, LGA 1200 - BX80701G5925</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2051.99</v>
+        <v>336.4</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Celeron G5925</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 13900K, 5.80GHz Max Turbo, Cache 36MB, Quad Core, 32 Threads, LGA 1700</t>
+          <t>Processador Intel Core I9 13900f, 2.00ghz, 24-core, LGA1700</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4779</v>
+        <v>2999</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Core I9 13900F</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7-12700K, 3.6GHz (5.0GHz Max Turbo), Cache 25MB, LGA 1700 - BX8071512700K</t>
+          <t>Processador AMD Ryzen 7 5800X, 3.8GHz, Cache 32MB, Octa Core, 16 Threads, AM4 - 100-100000063WOF</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1929</v>
+        <v>1599</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5800X</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 3 5300G 4GHz (4.2GHz Turbo) AM4, 4 Núcleos, 8 Threads, Vídeo Integrado</t>
+          <t>Intel - Core i7-14700k 14ª Ger. 20 Nuc. 28 Threads - 4,3 Ghz (5,6 Ghz Turbo) Soquete LGA 1700 Proc. De Desktop Desbloqueado - Multi-bx8071514700k</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>619.12</v>
+        <v>4742.36</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Core I7 14700K</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7700X, 5.4GHz, Cache 40MB, AM5, 8 núcleos, 16 Threads, Radeon Graphics Com Vídeo - 100-100000591WOF</t>
+          <t>Processador Intel Core I7 6700 Skylake, 3.4GHz (Turbo Max 4.00GHz), Cache 8MB, LGA 1151</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2405.33</v>
+        <v>1419</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Core I7 6700</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Processador Intel I3-6100 3.70ghz 3mb Cache LGA 1151 O&amp;m</t>
+          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4.0GHz Turbo), Quad Core, AM4 - YD3200C5FHBOX</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>126.45</v>
+        <v>607.59</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Ryzen 3 3200G</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7 10700K 3.80GHz</t>
+          <t>Processador Intel I3-7100, 3.70ghz, 3mb Cache, Fclga1151</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2150.99</v>
+        <v>155.27</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Intel I3 7100</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7900, 3.7GHz (5.4GHz Max Turbo), Cache 64MB, 12 Cores, 24 Threads, AM5, Wraith Prism - 100-100000590BOX</t>
+          <t>Processador Intel Core I7-10700KA, 3.8GHz, Cachê 16MB, Octa Core, LGA 1200 - BX8070110700KA</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2660.75</v>
+        <v>2447.99</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Core I7 10700KA</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Processador Intel I7-12700F, 2.1Ghz (4.9Ghz Turbo ), Cache 25MB, 20 Threads, Dual Core, LGA 1700 - BX8071512700F</t>
+          <t>Processador AMD Ryzen 7 7800X3D, 4.20Ghz (Turbo 5.00GHZ), Cache 512KB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000910WOF</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1899</v>
+        <v>4599.9</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7800X3D</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-11500 11ª Geração, 2.7GHz, Cache 12MB, Hexa Core, 4 Threads, LGA 1200 - BX8070811500</t>
+          <t>Processador AMD Ryzen 7 5700X, Cache 36MB, AM4, Redeon Graphics</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2045.1</v>
+        <v>2043.44</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700X</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Processador Intel Celeron G6900, 3.40MHz, LGA 1700 - BX80715G6900</t>
+          <t>Processador Intel Core I5 650, 3.2GHz, Cache 4MB, LGA 1156, Sem Cooler Tray</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>474.93</v>
+        <v>227.97</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Core I5 650</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>LGA1156</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 860 2.88ghz</t>
+          <t>Processador Intel Core I7 3770 3ª Geração, 3.40GHz, Quad Core, 8 Threads, FCLGA 1155, OEM</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>193</v>
+        <v>355.9</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Core I7 3770</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>FCLGA1155</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-12600K, 3.7GHz (4.9GHz Turbo), Cache 20MB, 10 Núcleos, 16 Threads, LGA 1700 - Bx8071512600k</t>
+          <t>Processador Intel Core I3 7100, 3.9GHz, Cache 3MB, LGA 1151, Sem Cooler Tray</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1399</v>
+        <v>166.9</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Core I3 7100</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 14700kF, 3.4 GHz (5.6GHZ Turbo), Cache 33MB, LGA1700 - Bx8071514700kf</t>
+          <t>Processador Intel Core I9-12900K, 12ª Geração, 3.2GHz, 5.2GHz Max Turbo, Cache 30MB, Octa Core, 24 Threads, LGA 1700, Vídeo Integrado - BX8071512900K</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2509</v>
+        <v>3579.9</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Core I9 12900K</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 14900kf, 14ª Geração, 3.6 Ghz (6.0ghz Turbo), Cache 36MB, LGA 1700 - BX8071514900KF</t>
+          <t>Processador Intel Core I5-11600KF 3.9GHz, 12MB, LGA 1200 - BX8070811600KF I</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3359</v>
+        <v>1902.3</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Core I5 11600KF</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-3470 LGA 1155 3.2ghz 326b770</t>
+          <t>Processador AMD Ryzen 5 7600 4,00ghz, 6-core, 38MB, Am5</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>139.9</v>
+        <v>1673.99</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Ryzen 5 7600</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5 11400F 2.60GHz</t>
+          <t>Processador Intel Core I9 14900ks, 6.0ghz Mas Turbo, Cache 36mb, 24 Core, 32 Threads, LGA 1700 - Bx8071514900ks</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1052.99</v>
+        <v>7822.55</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Core I9 14900KS</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-10600KF, 4.1GHz, Cache 12MB, LGA 1200 - BX8070110600KF</t>
+          <t>Processador Intel Core I9-12900KF, 3.2GHz, Cache 30MB, Hexa Core, 24 Threads, LGA 1700 - BX8071512900KF</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1259.99</v>
+        <v>2979</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Core I9 12900KF</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Processador Intel 1151 Core I3 8100 3.6ghz/6mb S/ Cooler Tray 8°g I3-8100</t>
+          <t>Processador I5 3470, 3.20ghz, DDR3, LGA 1155, 3°geração, Oem Intel</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>267.79</v>
+        <v>254.5</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>I5 3470</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Processador Intel Celeron G-5900, 3.40GHz, Dual Core, 2 Threads, FCLGA 1200 - BX80701G5900</t>
+          <t>Processador Intel Core I5 11600K 11ª Geração, 3.90GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200, Intel UHD Graphics 750 - BX8070811600K</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>403.75</v>
+        <v>2286.44</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Core I5 11600K</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5700g 3.8ghz, Vídeo Integrado Am4 - 100-100000263cbx</t>
+          <t>Processador Intel i5-7500t / 3.30ghz / 6mb Cache / FcLGA 1151</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1359</v>
+        <v>348.91</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Intel I5 7500T</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Processador Intel Xeon Silver 4310,LGA 4189,2.1ghz,turbo 3.3ghz,Cache 18mb - Bx806894310</t>
+          <t>Processador Intel Core I9 11900f Box LGA 1200 16MB Cache S/ Vídeo - Bx8070811900f</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6399.39</v>
+        <v>2499</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Core I9 11900F</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Processador Intel G7400 Pentium Gold, 3.70GHz, Cache 6MB, 4 Threads, 1700, Box - BX80715G7400</t>
+          <t>Processador Intel I7-4770,3,9ghz,8MB Cache - FCLGA1150</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>728.1</v>
+        <v>360.37</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Intel I7 4770</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>FCLGA1150</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Processador Intel I5-2400, 3.10ghz, 6mb Cache - Fclga1155.</t>
+          <t>Processador Intel Core I3 13100f Box LGA 1700 3.4GHZ 12MB Cache S/ Vídeo - Bx8071513100f</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>122.18</v>
+        <v>874.92</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Core I3 13100F</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7700 3.80ghz, 8-core, 40MB, Am5</t>
+          <t>Processador Intel I5-7400, 3.50ghz, 6MB Cache - Fclga1151</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2687.66</v>
+        <v>382.78</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Intel I5 7400</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Processador Intel Sk1151 Core I3 8100 3.6ghz Oem Sem Cooler</t>
+          <t>Processador Intel Core I7 13700, 2.10ghz, 16-core, LGA1700</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>258</v>
+        <v>3974.39</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Core I7 13700</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-10400, 2.9GHz, Cache 12MB, LGA 1200 - BX8070110400</t>
+          <t>Processador Intel I5-4570 / 3.60ghz / 6mb Cache / FcLGA 1150.</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1099</v>
+        <v>179.66</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Intel I5 4570</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>FCLGA1150</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 9 7900 4.00ghz, 12-core, 76MB, Am5</t>
+          <t>Processador Intel Core i5-11400 2.6ghz, 12mb, LGA 1200 - Bx8070811400</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3303.69</v>
+        <v>1222.32</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Core I5 11400</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Processador Intel I7-2600, 3.80ghz, 8mb, Cache - FcLGA</t>
+          <t>Processador Intel Core I5-7400t 2.4ghz Cache 6mb LGA 1151 Oem</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>310.93</v>
+        <v>397.97</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Core I5 7400T</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Processador Intel I7-8700 4.6GHz, Cache 12MB, 12 Threads - Fclga1151</t>
+          <t>Processador Intel Core I5 3470, 2.9GHZ (3.6ghz Turbo), 4 cores, 4 threads, LGA 1155 Oem</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>930.36</v>
+        <v>259.2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Core I5 3470</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 10700K 10ª Geração, 3.80GHz, Cache 16MB, Octa Core, 16 Threads, LGA 1200 - BX8070110700K</t>
+          <t>Processador I7 2600, 3.40ghz, DDR3, LGA 1155, 2°geração Oem Intel</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2934.55</v>
+        <v>470.16</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>I7 2600</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen Threadripper Pro 5975WX, Cache 128MB, 32 Núcleos, SP3 WOF - 100-100000445WOF</t>
+          <t>Processador Intel Core I3-13100, 3.4ghz (4.5ghz Turbo), Lga1700, 12MB Cache, 13ª Geração</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>17499.99</v>
+        <v>1045.24</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Core I3 13100</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen Threadripper Pro 5965WX, Cache 128 MB, 24 Núcleos, SP3 - 100-100000446WOF</t>
+          <t>Processador Intel Core I3 4130 4ª Geração, 3.40GHz, Cache 3MB, Dual Core, 4 Threads, LGA 1150, OEM</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>10999.99</v>
+        <v>52.9</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Core I3 4130</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>LGA1150</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 5 9600x 38mb 3.9ghz - 5.4ghz</t>
+          <t>Processador Intel I3-6100, 3.70GHz, Cache 3MB, Dual Core, 4 Threads, FCLGA 1151, OEM</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2349</v>
+        <v>263.9</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Intel I3 6100</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>FCLGA1151</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Processador Intel Ultra 5 245kf Arrow Lake 4.2ghz 5.2ghz Turbo 14cores 214threads LGA 1851 S/video S/cooler</t>
+          <t>Processador Intel Core I3-10100F, 3.60GHz (4.30GHz Turbo), Cache 6MB, LGA 1200 - BX8070110100F</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2349</v>
+        <v>497.78</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Core I3 10100F</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 10400F, 2.90GHz, Cache 12MB, LGA 1200, Sem Cooler Tray - BX8070110400F</t>
+          <t>Processador Intel Core I7 3770, 3.40GHz, Smart Cache 8MB, Quad Core, 8 Threads, LGA 1155, OEM</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>665.42</v>
+        <v>435.38</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Core I7 3770</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen Threadripper 7980X, 5.1GHz, Cache de 320MB, 64 Núcleos, Threads 128</t>
+          <t>Processador AMD Ryzen 7 7700, 3.8GHz (5.3GHz Max Turbo), Cache 32MB, 8 Cores, 16 Threads, AM5, Wraith Prism - 100-100000592BOX</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>43189.9</v>
+        <v>2279.77</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7700</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 3 3200G, 3.6GHz - 4.0GHz Turbo, AM4, Quad Core, 4 Thread, Cooler Wraith Stealth - Yd3200c5fhbox</t>
+          <t>Processador Intel Pentium G2030, 3.0ghz, LGA 1155</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>494.91</v>
+        <v>128.24</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Pentium G2030</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Processador Intel Core Ultra 7 265kf Arrow Lake 3.9ghz 5.5ghz</t>
+          <t>Processador Intel Pentium Gold G6405, 10ª Geração, 4.10GHz, Dual Core, 4 Threads, LGA 1200 - BX80701G6405</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2669</v>
+        <v>509</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Pentium Gold G6405</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Processador Intel Celeron G5905, 4MB, 3.5ghz, LGA 1200, Bx80701g5905</t>
+          <t>Processador Intel I7 12700 12ª Geração, 2.1GHz (Turbo 4.90Ghz), Cache 25MB, Dual Core, 20 Threads, LGA 1700 - BX8071512700</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>419</v>
+        <v>2069</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Intel I7 12700</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9-12900 12ª Geração, 1.8GHz, Cache 30MB, Núcleos 16, Threads 24, LGA 1700 - Bx8071512900</t>
+          <t>Processador Intel Core I3-10105F, 3.70GHz (4.4GHz Turbo), Cache 6MB, Quad Core, LGA 1200 - BX8070110105F</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3158.88</v>
+        <v>521.1</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Core I3 10105F</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Processador Intel Celeron G5925 10ª Geração, 3.6GHz, Cache 4MB, LGA 1200 - BX80701G5925</t>
+          <t>Processador Intel Core I7-10700, 2.90GHz (4.8GHz Turbo), Cache 16MB, LGA 1200 - BX8070110700</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>336.4</v>
+        <v>2961.62</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Core I7 10700</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 13900f, 2.00ghz, 24-core, LGA1700</t>
+          <t>Processador Intel Core I3 2120, 3.30GHz, Cache 3MB, LGA 1155</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2999</v>
+        <v>170.91</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Core I3 2120</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5800X, 3.8GHz, Cache 32MB, Octa Core, 16 Threads, AM4 - 100-100000063WOF</t>
+          <t>Processador Intel Celeron G5905, 10ª Geração, 3.50GHz, Cache 4MB, Dual Core, 2 Threads, LGA 1200, Intel UHD Graphics 610 - BX80701G5905</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1599</v>
+        <v>332.86</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Celeron G5905</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Intel - Core i7-14700k 14ª Ger. 20 Nuc. 28 Threads - 4,3 Ghz (5,6 Ghz Turbo) Soquete LGA 1700 Proc. De Desktop Desbloqueado - Multi-bx8071514700k</t>
+          <t>Processador Intel Core I7-11700K, 3.6GHz (4.9GHz Turbo), Cache 16MB, 12 Threads, LGA 1200 - BX8070811700K</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4742.36</v>
+        <v>3204.53</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Core I7 11700K</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 6700 Skylake, 3.4GHz (Turbo Max 4.00GHz), Cache 8MB, LGA 1151</t>
+          <t>Processador Intel Core I5-10600K, 4.1GHz (4.8GHz Max Turbo), Cache 12MB, LGA 1200 - BX8070110600K</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1419</v>
+        <v>2044.25</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Core I5 10600K</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4.0GHz Turbo), Quad Core, AM4 - YD3200C5FHBOX</t>
+          <t>Processador Intel Core I9-10900F, 2.80GHz, Cache 20MB, 10 Núcleos, 20 Threads, FCLGA 1200, Intel UHD Graphics 630</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>607.59</v>
+        <v>2546.99</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Core I9 10900F</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>FCLGA1200</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-3220, 3mb, Cache 3.30ghz, 1155 Oem</t>
+          <t>Processador Intel Core I5 6500, 3.2GHz, Cache 6MB, LGA 1151, Sem Cooler Tray</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>147.97</v>
+        <v>322.59</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Core I5 6500</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen Threadripper 7960x 24 Cores 48 Threads 5.3 Ghz 152mb</t>
+          <t>Processador AMD Ryzen 5-5500 3.6GHz, Cache 16MB, Hexa Core, 12 Threads, AM4</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>13696.9</v>
+        <v>769</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5500</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Processador Intel I3-7100, 3.70ghz, 3mb Cache, Fclga1151</t>
+          <t>Processador Intel Core I3-12100F 2.9, LGA 1700 - BX8071512100Fi</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>155.27</v>
+        <v>737.67</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Core I3 12100F</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7-10700KA, 3.8GHz, Cachê 16MB, Octa Core, LGA 1200 - BX8070110700KA</t>
+          <t>Processador Intel Core I5 4570, 3.20GHz, Cache 6MB, LGA 1150</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2447.99</v>
+        <v>179.99</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Core I5 4570</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>LGA1150</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7800X3D, 4.20Ghz (Turbo 5.00GHZ), Cache 512KB, AM5, 8 Núcleos, Vídeo Integrado - 100-100000910WOF</t>
+          <t>Processador Intel Core I5-8400 Coffee Lake, Cache 9mb, 2.8ghz (4ghz Max Turbo), LGA 1151 - Oem</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4599.9</v>
+        <v>598.54</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Core I5 8400</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Processador Amd Ryzen 5 8400f 22mb 4.2ghz - 4.7ghz</t>
+          <t>Processador Intel Core I3 6100 6ª Geração, 3.70GHz, Cache 3MB, LGA 1151, Skylake</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1399</v>
+        <v>165.2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Core I3 6100</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7 10700F 2.90GHz</t>
+          <t>Amd Ryzen 5 5600x 6 Núcleos 12 Threads 3.7ghz (turbo 4.6 Ghz) Cache 35mb Am4 Tdp 65w - 100-000000065</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1907.99</v>
+        <v>1179.99</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600X</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 5700X, Cache 36MB, AM4, Redeon Graphics</t>
+          <t>Processador Intel I7-3770, 3.90ghz, 8mb Cache - Fclga1155.</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2043.44</v>
+        <v>358.75</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Intel I7 3770</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>FCLGA1155</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 650, 3.2GHz, Cache 4MB, LGA 1156, Sem Cooler Tray</t>
+          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4GHz Max Turbo), Cache 4MB, Quad Core, 4 Threads, AM4, Radeon Vega 8 Integrado - YD320GC5FIBOX</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>227.97</v>
+        <v>759.99</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Ryzen 3 3200G</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 3770 3ª Geração, 3.40GHz, Quad Core, 8 Threads, FCLGA 1155, OEM</t>
+          <t>Processador Intel Core I5 - 10400F, 2.9GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>355.9</v>
+        <v>1099</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Core I5 10400F</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen Threadripper Pro 5995WX, Cache 256 MB, 64 Núcleos, SP3 WOF - 100-100000444WOF</t>
+          <t>Processador Intel Core I3-7320 Pull Oem Socket LGA 1151 2 Core 4 Threads Cache 4mb - Sem Cooler</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>37999.99</v>
+        <v>295.13</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Core I3 7320</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 7100, 3.9GHz, Cache 3MB, LGA 1151, Sem Cooler Tray</t>
+          <t>Processador Intel Core I9-13900kf, 13ª Geração, 5.8GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700 - Bx8071513900kf</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>166.9</v>
+        <v>4204.2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Core I9 13900KF</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Processador Intel Core i3 3240 Oem</t>
+          <t>Processador Intel Core I7-4770s Pull Oem Socket LGA 1150 4 Core 8 Threads Cache 8mb - Sem Cooler</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>110.11</v>
+        <v>582.53</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Core I7 4770S</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>LGA1150</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9-12900K, 12ª Geração, 3.2GHz, 5.2GHz Max Turbo, Cache 30MB, Octa Core, 24 Threads, LGA 1700, Vídeo Integrado - BX8071512900K</t>
+          <t>Processador Intel Core I7-2600 LGA 1155 Oem</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3579.9</v>
+        <v>357.97</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Core I7 2600</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Processador AMD Athlon 3000G, 3.5GHz, Cache 5MB, Dual Core, 4 Thread, AM4, Radeon VEGA 3 - YD3000C6FBBOX</t>
+          <t>Processador Intel Celeron G1820, 2.70GHz, Cache 2MB, Dual Core, 2 Threads, LGA 1150 - BX80646G1820</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>427.35</v>
+        <v>376.31</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Celeron G1820</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>LGA1150</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-11600KF 3.9GHz, 12MB, LGA 1200 - BX8070811600KF I</t>
+          <t>Processador Intel Core I3-10100f, 4- Core, 8-threads, 3.6ghz (4.3ghz Turbo), Cache 6mb, LGA 1200, Bx80</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1902.3</v>
+        <v>899</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Core I3 10100F</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5 7600 4,00ghz, 6-core, 38MB, Am5</t>
+          <t>Processador Intel Core I3-10100, 4.30GHz, Cache 6MB, LGA 1200</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1673.99</v>
+        <v>905</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Core I3 10100</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium Gold G6400 - BX80701G6400</t>
+          <t>Processador Intel Core i5-12400f Cache 18mb LGA 1700 Bx8071512400f</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>639</v>
+        <v>1299</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Core I5 12400F</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-3220, 3ª Geracao, Soquete: 1155</t>
+          <t>Processador Amd Ryzen 9 7900x Cache 76mb 5.6ghz Am5</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>88.26000000000001</v>
+        <v>3299</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Ryzen 9 7900X</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 14900ks, 6.0ghz Mas Turbo, Cache 36mb, 24 Core, 32 Threads, LGA 1700 - Bx8071514900ks</t>
+          <t>Processador Intel Core I5 14600k 14 Núcleos 20 Threads 2.6 Ghz LGA 1700</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>7822.55</v>
+        <v>3106.43</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Core I5 14600K</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9-12900KF, 3.2GHz, Cache 30MB, Hexa Core, 24 Threads, LGA 1700 - BX8071512900KF</t>
+          <t>Processador Intel Core I5-14400, 3.5Ghz (4.7Ghz Turbo), Cache 20MB, Intel LGA 1700, 10-Core 16-Threads</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2979</v>
+        <v>1888.99</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Core I5 14400</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 5-4600G Box, 1900MHz, Cache 3MB, Hexa Core, 12 Threads - 100-100000147</t>
+          <t>Processador Intel Core i3-12100f, 4 Núcleos, 8 Threads, 12mb Cache, LGA 1700, 12ª Geração, Sem Gráficos Integrados</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1184.65</v>
+        <v>824.9</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Core I3 12100F</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Processador I5 3470, 3.20ghz, DDR3, LGA 1155, 3°geração, Oem Intel</t>
+          <t>Processador Intel Core i3-13100f, 4 Núcleos, 8 Threads, 12mb Cache, LGA 1700, 13ª Geração, Sem Gráficos Integrados</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>254.5</v>
+        <v>928.9</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Core I3 13100F</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 11600K 11ª Geração, 3.90GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200, Intel UHD Graphics 750 - BX8070811600K</t>
+          <t>Processador Intel Core i3-10105, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2286.44</v>
+        <v>880.9</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Core I3 10105</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Processador 1151 Core I5 8500t 2.10ghz/9mb S/cooler Tray I5-8500t Intel</t>
+          <t>Processador Amd Ryzen 5 4500 3.6ghz (turbo 4.1ghz) 11mb Cache Am4</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>453.15</v>
+        <v>910</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Ryzen 5 4500</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Processador Intel i5-7500t / 3.30ghz / 6mb Cache / FcLGA 1151</t>
+          <t>Processador Intel Core i5 14400f 14 Geracao 3.5 Ghz (4.7 Ghz Turbo) Cache 20mb 10 Nucleos 16 Threads LGA 1700 Oem</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>348.91</v>
+        <v>1859.87</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Core I5 14400F</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Processador Intel Core I9 11900f Box LGA 1200 16MB Cache S/ Vídeo - Bx8070811900f</t>
+          <t>Processador Intel Core I3-10100f, 4.30 Ghz, Cache 6MB, Threads 8, QuadCore, LGA 1200</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2499</v>
+        <v>685</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Core I3 10100F</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Processador Intel I7-4770,3,9ghz,8MB Cache - FCLGA1150</t>
+          <t>Processador Intel Core I5 3340 - Lga 1155 - 3.30ghz - Cache 6mb - Tray Sem Cooler - Oem</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>360.37</v>
+        <v>1039.99</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Core I5 3340</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 6500, 6ª Geração 3.20ghz, 6MB Oem 1151</t>
+          <t>Intel® Core™ I7 870 LGA 1156 - 2.93ghz - Cache 8mb - Tray Sem Cooler</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>317.9</v>
+        <v>909.99</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>I7 870</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>LGA1156</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 13100f Box LGA 1700 3.4GHZ 12MB Cache S/ Vídeo - Bx8071513100f</t>
+          <t>Processador Intel I5-14500 LGA 1700 - Bx8071514500</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>874.92</v>
+        <v>2669.96</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Intel I5 14500</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Processador Intel I5-7400, 3.50ghz, 6MB Cache - Fclga1151</t>
+          <t>Processador Intel Core I3-2120, 3mb Cache, 3.30ghz, LGA 1155, 2ª Geração.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>382.78</v>
+        <v>119.99</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Core I3 2120</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 13700, 2.10ghz, 16-core, LGA1700</t>
+          <t>Processador Intel I3 2120 3.3ghtz, 3MB, LGA 1155 - OEM</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3974.39</v>
+        <v>112.1</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Intel I3 2120</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Processador Intel I5-4570 / 3.60ghz / 6mb Cache / FcLGA 1150.</t>
+          <t>Processador Intel Core i5-13600k, 14 Núcleos, 20 Threads, 24mb Cache, LGA 1700, 13ª Geração, Desbloqueado, Sem Cooler</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>179.66</v>
+        <v>2859.9</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Core I5 13600K</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Processador Intel Core i5-11400 2.6ghz, 12mb, LGA 1200 - Bx8070811400</t>
+          <t>Processador Intel Core i3-9100, 4 Núcleos, 4 Threads, 6mb Cache, LGA 1151, 9ª Geração, Com Gráficos Integrados</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1222.32</v>
+        <v>499.9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Core I3 9100</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5-7400t 2.4ghz Cache 6mb LGA 1151 Oem</t>
+          <t>Processador Intel Core i3-10105f, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração, Sem Gráficos Integrados</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>397.97</v>
+        <v>609.9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Core I3 10105F</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Processador Intel Core I5 3470, 2.9GHZ (3.6ghz Turbo), 4 cores, 4 threads, LGA 1155 Oem</t>
+          <t>Processador Intel Core i3-6100, 2 Núcleos, 4 Threads, 3mb Cache, LGA 1151, 6ª Geração, Com Gráficos Integrados</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>259.2</v>
+        <v>129.9</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Core I3 6100</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Processador Intel Xeon E7-8830 SLC3K, 2.13GHz, Cache 24MB, Octa Core, LGA 1567</t>
+          <t>Processador Intel Core i5-12400f, 6 Núcleos, 12 Threads, 18mb Cache, LGA 1700, 12ª Geração, Sem Vídeo Integrado</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>367.11</v>
+        <v>949.9</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Core I5 12400F</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Processador I7 2600, 3.40ghz, DDR3, LGA 1155, 2°geração Oem Intel</t>
+          <t>Processador Intel Core I3-4160 3.6ghz LGA 1150 Oem</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>470.16</v>
+        <v>200</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Core I3 4160</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>LGA1150</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Processador Gamer Core I5-4590, 4 Núc., 3.7ghz, Gráf. Integ.</t>
+          <t>Processador I3-10105f 3.7ghz 6mb LGA 1200 Bx8070110105f</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>260.1</v>
+        <v>616</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
           <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>I3 10105F</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Processador Intel Core i7-13700f Cache 30mb 5.20ghz 1700 Oem</t>
+          <t>Processador Intel Core I7-10700kf, 2.9ghz, LGA 1200</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2477.97</v>
+        <v>2386.8</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Core I7 10700KF</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-13100, 3.4ghz (4.5ghz Turbo), Lga1700, 12MB Cache, 13ª Geração</t>
+          <t>Processador Intel Core I3-10100 10 Geração, 3.6Ghz, Max Turbo 4.3Ghz, Cache 6MB, LGA 1200 - Bx8070110100</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1045.24</v>
+        <v>1263.9</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Core I3 10100</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-540 Pull Oem Socket 1156 2 Core 4 Threads Cache 4mb</t>
+          <t>Processador Intel Core I5-2400 3.10ghz Cache 6mb LGA 1155 Oem</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>47.9</v>
+        <v>177.97</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Core I5 2400</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3 4130 4ª Geração, 3.40GHz, Cache 3MB, Dual Core, 4 Threads, LGA 1150, OEM</t>
+          <t>Processador Intel Core I5-2320 3.00ghz Cache 6mb LGA 1155 Oem</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>52.9</v>
+        <v>157.97</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Core I5 2320</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Processador Intel I3-6100, 3.70GHz, Cache 3MB, Dual Core, 4 Threads, FCLGA 1151, OEM</t>
+          <t>Processador Amd Ryzen 7 5800xt 3.8 Ghz Am4 100-100001582box</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>263.9</v>
+        <v>2149</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5800XT</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-10100F, 3.60GHz (4.30GHz Turbo), Cache 6MB, LGA 1200 - BX8070110100F</t>
+          <t>Processador Amd Ryzen 7 7800x3d 4.2ghz Am5 Vídeo Integrado 100-100000910woz</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>497.78</v>
+        <v>4249</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ryzen 7 7800X3D</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>AM5</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 3770, 3.40GHz, Smart Cache 8MB, Quad Core, 8 Threads, LGA 1155, OEM</t>
+          <t>Processador Intel Celeron G3930, LGA 1151</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>435.38</v>
+        <v>598.9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Celeron G3930</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen 7 7700, 3.8GHz (5.3GHz Max Turbo), Cache 32MB, 8 Cores, 16 Threads, AM5, Wraith Prism - 100-100000592BOX</t>
+          <t>Amd Ryzen 7 5700g – 8 Núcleos, 16 Threads, 16mb Cache, Soquete Am4, Gráficos Integrados</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2279.77</v>
+        <v>1423.53</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
           <t>AMD</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700G</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7 4770</t>
+          <t>Processador Intel Core i3-10100, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>529.05</v>
+        <v>809.9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Core I3 10100</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Processador 1151, Intel Core I3 6100, 3.7ghz/3MB S/coolertray 6º G - I3-6100</t>
+          <t>Processador Intel Core i5-10400, 6 Núcleos, 12 Threads, 12mb Cache, LGA 1200, 10ª Geração, Com Gráficos Integrados</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>141.99</v>
+        <v>1179.9</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Core I5 10400</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>LGA1200</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium G2030, 3.0ghz, LGA 1155</t>
+          <t>Processador Amd Ryzen 7 5700x, 8 Núcleos, 16 Threads, Cache 32mb, Soquete Am4</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>128.24</v>
+        <v>1540</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ryzen 7 5700X</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Processador Intel Pentium Gold G6405, 10ª Geração, 4.10GHz, Dual Core, 4 Threads, LGA 1200 - BX80701G6405</t>
+          <t>Processador Amd Ryzen 5 5600xt Am4 4.7 Ghz 6 Cores 12 Threads 35mb Wraith Stealt S/ Video</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>509</v>
+        <v>1172.95</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600XT</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Processador Intel I7 12700 12ª Geração, 2.1GHz (Turbo 4.90Ghz), Cache 25MB, Dual Core, 20 Threads, LGA 1700 - BX8071512700</t>
+          <t>Processador Amd Ryzen 5 5600gt Am4 3.6ghz 100-100001488cbx</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2069</v>
+        <v>901.46</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ryzen 5 5600GT</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>AM4</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Processador Intel Core I3-10105F, 3.70GHz (4.4GHz Turbo), Cache 6MB, Quad Core, LGA 1200 - BX8070110105F</t>
+          <t>Processador Intel Core I5-14400f, 3.5ghz, 4.7ghz Turbo, 10-cores, 16-threads, Cache 20mb, LGA 1700</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>521.1</v>
+        <v>1511.12</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Core I5 14400F</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>LGA1700</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Processador Intel Core I7-10700, 2.90GHz (4.8GHz Turbo), Cache 16MB, LGA 1200 - BX8070110700</t>
+          <t>Processador Intel Core I5-6500 3.2ghz LGA 1151 Oem</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2961.62</v>
+        <v>402.26</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
           <t>Intel</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Core I5 6500</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>LGA1151</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Processador AMD Ryzen, Threadripper Pro 5975wx 32c 3.6ghz</t>
+          <t>Processador Intel I7 2600, 3.8GHz, Cache 8MB, LGA 1155, OEM</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>16952.9</v>
+        <v>399.9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3 2120, 3.30GHz, Cache 3MB, LGA 1155</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>170.91</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Processador Intel Celeron G5905, 10ª Geração, 3.50GHz, Cache 4MB, Dual Core, 2 Threads, LGA 1200, Intel UHD Graphics 610 - BX80701G5905</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>332.86</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7-11700K, 3.6GHz (4.9GHz Turbo), Cache 16MB, 12 Threads, LGA 1200 - BX8070811700K</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>3204.53</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Processador Intel 1150 Core I3 4160, 3.6ghz/3mb S/cooler Tray 4ªg I3-4160</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>67.97</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-10600K, 4.1GHz (4.8GHz Max Turbo), Cache 12MB, LGA 1200 - BX8070110600K</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>2044.25</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I9-10900F, 2.80GHz, Cache 20MB, 10 Núcleos, 20 Threads, FCLGA 1200, Intel UHD Graphics 630</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>2546.99</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 6500, 3.2GHz, Cache 6MB, LGA 1151, Sem Cooler Tray</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>322.59</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-10105f 3.7GHz-4.4GHz, Sem Vídeo - Bx8070110105f</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>579.99</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 2xxx 3.1ghz LGA 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>165.79</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Processador AMD Ryzen 5-5500 3.6GHz, Cache 16MB, Hexa Core, 12 Threads, AM4</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>769</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-12100F 2.9, LGA 1700 - BX8071512100Fi</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>737.67</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 4570, 3.20GHz, Cache 6MB, LGA 1150</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>179.99</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-8400 Coffee Lake, Cache 9mb, 2.8ghz (4ghz Max Turbo), LGA 1151 - Oem</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>598.54</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Processador AMD A6 7480, 3.8GHz, Cache 1MB, Dual Core, 2 Threads, FM2+ - AD7480ACABBOX</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>234.32</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3 6100 6ª Geração, 3.70GHz, Cache 3MB, LGA 1151, Skylake</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>165.2</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Amd Ryzen 5 5600x 6 Núcleos 12 Threads 3.7ghz (turbo 4.6 Ghz) Cache 35mb Am4 Tdp 65w - 100-000000065</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>1179.99</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7 6700 3.4ghz 1151 Oem</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>846.95</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Processador Intel I7-3770, 3.90ghz, 8mb Cache - Fclga1155.</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>358.75</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Processador AMD Ryzen 3 3200G, 3.6GHz (4GHz Max Turbo), Cache 4MB, Quad Core, 4 Threads, AM4, Radeon Vega 8 Integrado - YD320GC5FIBOX</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>759.99</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 - 10400F, 2.9GHz, Cache 12MB, Hexa Core, 12 Threads, LGA 1200</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>1099</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-7320 Pull Oem Socket LGA 1151 2 Core 4 Threads Cache 4mb - Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>295.13</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I9-13900kf, 13ª Geração, 5.8GHz Max Turbo, Cache 36MB, 24 Núcleos, 32 Threads, LGA 1700 - Bx8071513900kf</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>4204.2</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7-4770s Pull Oem Socket LGA 1150 4 Core 8 Threads Cache 8mb - Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>582.53</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-6100 Cache 3mb 3.70ghz 1151 Oem</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>177.97</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Processador Intel Core Pentium G4400t 2.90ghz 3mb Cache 1151 Oem</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>357.97</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7-2600 LGA 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>357.97</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Processador Intel Core Ultra 9 285k Series 2</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>6046</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Amd Ryzen Threadripper Pro 7955wx 16-core Socket</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>17099</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Processador Intel Sk1151 Core I7 6700 3.40ghz Oem Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Processador Intel Celeron G1820, 2.70GHz, Cache 2MB, Dual Core, 2 Threads, LGA 1150 - BX80646G1820</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>376.31</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-10100f, 4- Core, 8-threads, 3.6ghz (4.3ghz Turbo), Cache 6mb, LGA 1200, Bx80</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>899</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-10100, 4.30GHz, Cache 6MB, LGA 1200</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>905</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5-12400f Cache 18mb LGA 1700 Bx8071512400f</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>1299</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Processador Intel i5-10400 Comet Lake</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>1097.99</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 9 7900x Cache 76mb 5.6ghz Am5</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>3299</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 14600k 14 Núcleos 20 Threads 2.6 Ghz LGA 1700</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>3106.43</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-14400, 3.5Ghz (4.7Ghz Turbo), Cache 20MB, Intel LGA 1700, 10-Core 16-Threads</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>1888.99</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-12100f, 4 Núcleos, 8 Threads, 12mb Cache, LGA 1700, 12ª Geração, Sem Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>824.9</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-13100f, 4 Núcleos, 8 Threads, 12mb Cache, LGA 1700, 13ª Geração, Sem Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>928.9</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-10105, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>880.9</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3 4xxx 3.4ghz 1150</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>88.68000000000001</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Processador Intel 1151p Core I3 9100t 3.6ghz 6mb - Oem</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>489.9</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-530 2.93ghz Cache 3mb 1156 Oem.</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon Gold 5315y - LGA 4189 3gen - 08 Cores 3.60ghz - 12mb - Tdp: 140w</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>14422.02</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon Gold 5418y - LGA 4677 4gen 24 Cores 2.00ghz - 45mb - Tdp: 185w</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>27688.3</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon Gold 5317 - LGA 4189 3gen - 12 Cores - 3.0ghz - 18mb - Tdp: 150w</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>15232.9</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-2130 Cache 3mb 3.40ghz 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 5 4500 3.6ghz (turbo 4.1ghz) 11mb Cache Am4</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>910</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5 14400f 14 Geracao 3.5 Ghz (4.7 Ghz Turbo) Cache 20mb 10 Nucleos 16 Threads LGA 1700 Oem</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1859.87</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-10100f, 4.30 Ghz, Cache 6MB, Threads 8, QuadCore, LGA 1200</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>685</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Amd Ryzen Threadripper Pro 5955wx 4ghz 16 Core</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>13546</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5 3340 - Lga 1155 - 3.30ghz - Cache 6mb - Tray Sem Cooler - Oem</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1039.99</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Intel® Celeron® G1610 - Lga 1155 - 2.60ghz - Cache 2mb - Tray Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>390.99</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Intel® Core™ I7 870 LGA 1156 - 2.93ghz - Cache 8mb - Tray Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>909.99</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5-3340 3.10ghz 1155 3 Geração</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>162.58</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Processador Intel I5-14500 LGA 1700 - Bx8071514500</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>2669.96</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-2120, 3mb Cache, 3.30ghz, LGA 1155, 2ª Geração.</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>119.99</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Processador Intel Sk1200 Core i7 10700t 2.00ghz (max 4.50 Ghz) Oem Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1685.88</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Processador Intel Bx807012400f 1700 Core I5 12400f 2.5ghz/ 18MB S/ Cooler Tray</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>926.58</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon Silver 4309y - LGA 4189 3gen - 08 Cores - 2.80ghz - 12mb - Tdp: 105w</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>6269.75</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Processador Intel I3 2120 3.3ghtz, 3MB, LGA 1155 - OEM</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5-13600k, 14 Núcleos, 20 Threads, 24mb Cache, LGA 1700, 13ª Geração, Desbloqueado, Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>2859.9</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Processador Intel 1151p Core i5 G8 8500 3.5ghz - Oem</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>539.9</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-9100, 4 Núcleos, 4 Threads, 6mb Cache, LGA 1151, 9ª Geração, Com Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-10105f, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração, Sem Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>609.9</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-6100, 2 Núcleos, 4 Threads, 3mb Cache, LGA 1151, 6ª Geração, Com Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5-12400f, 6 Núcleos, 12 Threads, 18mb Cache, LGA 1700, 12ª Geração, Sem Vídeo Integrado</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>949.9</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Processador Intel Ultra 5 245k Arrow Lake 4.2ghz 5.2ghz Turbo 14cores 14threads LGA 1851 Video Integrado</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-3220 Cache 3mb 3.30ghz 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>124.36</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-4160 3.6ghz LGA 1150 Oem</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>200</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Processador I3-10105f 3.7ghz 6mb LGA 1200 Bx8070110105f</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>616</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Desconhecido</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-3220 3.30 Ghz 3 Mb Cache 1155 - Importado</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7-10700kf, 2.9ghz, LGA 1200</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>2386.8</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 3 5300g 8mb 4ghz - 4.2ghz</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>879</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Processador Gamer Intel Celeron G3900, 2.8GHz, 3MB, 2 Núcleos, 4 Threads, Com Gráfica Integrada - Cm8066201928610</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>637.5700000000001</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3-10100 10 Geração, 3.6Ghz, Max Turbo 4.3Ghz, Cache 6MB, LGA 1200 - Bx8070110100</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>1263.9</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon Silver 4310 - LGA 4189 3gen - 12 Cores - 2.10ghz - 18mb - Tdp: 120w</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>7523.94</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-2400 3.10ghz Cache 6mb LGA 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>177.97</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Processador i3-7100 3.90ghz, 7º Geração</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>1398.78</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Desconhecido</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-2320 3.00ghz Cache 6mb LGA 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>157.97</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 7 5800xt 3.8 Ghz Am4 100-100001582box</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>2149</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 7 7800x3d 4.2ghz Am5 Vídeo Integrado 100-100000910woz</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>4249</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Processador Intel Celeron G3930, LGA 1151</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>598.9</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Processador Gamer Intel Core i7-8700 Bx80684i78700 De 6 Núcleos E 4.6ghz De Frequência Com Gráfica Integrada Oem (sem Caixa)</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>1299</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3 10100F Comet Lake</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>611.99</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7 3770 3.4ghz 1155 Oem</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Processador Intel Sk1151 Core i3 9100 3.60ghz Oem Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>310.44</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i7-14700f Cache 33mb 5.4ghz 1700 Oem</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>3147.97</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Processador Amd Athlon 3000g 3.5ghz Am4 Yd3000c6fhsbx</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>386.38</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 3 4100 3.8ghz 6mb 100100000510mpki</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>660.9</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Processador Intel i7-11700K Rocket Lake 3.60GHz</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>2582.99</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Processador Intel i7-11700KF 3.6GHz</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>2519.99</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Processador Intel Sk1151 Core i5 8500 3.0ghz Oem Sem Cooler</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>436.5</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Amd Ryzen 7 5700g – 8 Núcleos, 16 Threads, 16mb Cache, Soquete Am4, Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>1423.53</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Processador Intel I3-2120, 3.30GHz, Dual Core, 4 Threads, OEM</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>98.98999999999999</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-10100, 4 Núcleos, 8 Threads, Cache 6mb, LGA 1200, 10ª Geração</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>809.9</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i3-c, 4 Núcleos, 4 Threads, 6mb Cache, LGA 1151, 8ª Geração, Com Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>322.9</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i5-10400, 6 Núcleos, 12 Threads, 12mb Cache, LGA 1200, 10ª Geração, Com Gráficos Integrados</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>1179.9</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 7 5700x, 8 Núcleos, 16 Threads, Cache 32mb, Soquete Am4</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>1540</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I3 13100, 3.4GHz, 3MB, Sem cooler Tray 13G - Cm8071505092202</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>1022.9</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Processador 1700 Core I3 12100 3.3Ghz/12mb S/Cooler Tray 12G I3-12100 Intel</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>877.6799999999999</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 5 5600xt Am4 4.7 Ghz 6 Cores 12 Threads 35mb Wraith Stealt S/ Video</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>1172.95</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Processador Amd Ryzen 5 5600gt Am4 3.6ghz 100-100001488cbx</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>901.46</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-14400f, 3.5ghz, 4.7ghz Turbo, 10-cores, 16-threads, Cache 20mb, LGA 1700</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>1511.12</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Processador Intel Core i9 12900f 2.4ghz, 5.1ghz Turbo, 12ª Geração, 16-cores 24-threads</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>2996.31</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I5-6500 3.2ghz LGA 1151 Oem</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>402.26</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon E2124, 3.30GHz, Cache 8MB, Quad Core, LGA 1151, Sem Gráfico - BX80684E2124</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>2106.99</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Processador Intel I5-10600K Marvel's Avengers Collector's Edition Packaging, Cache 12MB, 4.10GHz (4.80GHz) - BX8070110600KA</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>1664.99</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Processador Intel I7 2600, 3.8GHz, Cache 8MB, LGA 1155, OEM</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Processador Intel Xeon, 2.1GHz, 46W4363 - E5-2620V2</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>3160.23</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Processador Intel Celeron 430, 1.80GHz, 512K</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>116.04</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>Intel</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Processador Intel Core I7 12700F, 2.1GHz - Bx8071512700fI</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>2635.38</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>Intel</t>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Intel I7 2600</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>LGA1155</t>
         </is>
       </c>
     </row>
